--- a/VinayakaGitWorkSpace/Project/Docs/Adm_adm_session.xlsx
+++ b/VinayakaGitWorkSpace/Project/Docs/Adm_adm_session.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VinayakWorkSpace\VinayakaGitWorkSpace\Project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFF01B8-2752-4424-8865-93D4FA9B4F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53822ECF-0090-433C-BFEF-3D4BFC4BFB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1451,7 +1451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1474,14 +1474,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3551,7 +3597,7 @@
   <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3560,19 +3606,19 @@
     <col min="2" max="2" width="30.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>370</v>
       </c>
     </row>
@@ -3580,7 +3626,7 @@
       <c r="A3" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>371</v>
       </c>
     </row>
@@ -3588,7 +3634,7 @@
       <c r="A4" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3596,7 +3642,7 @@
       <c r="A5" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>372</v>
       </c>
     </row>
@@ -3604,7 +3650,7 @@
       <c r="A6" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>373</v>
       </c>
     </row>
@@ -3612,7 +3658,7 @@
       <c r="A7" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>374</v>
       </c>
     </row>
@@ -3620,7 +3666,7 @@
       <c r="A8" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>375</v>
       </c>
     </row>
@@ -3628,7 +3674,7 @@
       <c r="A9" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>376</v>
       </c>
     </row>
@@ -3636,7 +3682,7 @@
       <c r="A10" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>377</v>
       </c>
     </row>
@@ -3644,7 +3690,7 @@
       <c r="A11" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>378</v>
       </c>
     </row>
@@ -3652,7 +3698,7 @@
       <c r="A12" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>379</v>
       </c>
     </row>
@@ -3660,7 +3706,7 @@
       <c r="A13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>380</v>
       </c>
     </row>
@@ -3668,7 +3714,7 @@
       <c r="A14" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>381</v>
       </c>
     </row>
@@ -3676,7 +3722,7 @@
       <c r="A15" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>382</v>
       </c>
     </row>
@@ -3684,7 +3730,7 @@
       <c r="A16" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>383</v>
       </c>
     </row>
@@ -3692,7 +3738,7 @@
       <c r="A17" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>384</v>
       </c>
     </row>
@@ -3700,7 +3746,7 @@
       <c r="A18" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>385</v>
       </c>
     </row>
@@ -3708,7 +3754,7 @@
       <c r="A19" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>386</v>
       </c>
     </row>
@@ -3716,7 +3762,7 @@
       <c r="A20" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>387</v>
       </c>
     </row>
@@ -3724,7 +3770,7 @@
       <c r="A21" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>388</v>
       </c>
     </row>
@@ -3732,7 +3778,7 @@
       <c r="A22" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>389</v>
       </c>
     </row>
@@ -3740,7 +3786,7 @@
       <c r="A23" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>390</v>
       </c>
     </row>
@@ -3748,7 +3794,7 @@
       <c r="A24" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>391</v>
       </c>
     </row>
@@ -3756,7 +3802,7 @@
       <c r="A25" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>392</v>
       </c>
     </row>
@@ -3764,7 +3810,7 @@
       <c r="A26" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -3772,7 +3818,7 @@
       <c r="A27" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>394</v>
       </c>
     </row>
@@ -3780,7 +3826,7 @@
       <c r="A28" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>395</v>
       </c>
     </row>
@@ -3788,7 +3834,7 @@
       <c r="A29" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>396</v>
       </c>
     </row>
@@ -3796,7 +3842,7 @@
       <c r="A30" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>397</v>
       </c>
     </row>
@@ -3804,7 +3850,7 @@
       <c r="A31" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>398</v>
       </c>
     </row>
@@ -3812,7 +3858,7 @@
       <c r="A32" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>399</v>
       </c>
     </row>
@@ -3820,7 +3866,7 @@
       <c r="A33" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>400</v>
       </c>
     </row>
@@ -3828,7 +3874,7 @@
       <c r="A34" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>401</v>
       </c>
     </row>
@@ -3836,7 +3882,7 @@
       <c r="A35" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>402</v>
       </c>
     </row>
@@ -3844,7 +3890,7 @@
       <c r="A36" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>403</v>
       </c>
     </row>
@@ -3852,7 +3898,7 @@
       <c r="A37" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3860,7 +3906,7 @@
       <c r="A38" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>405</v>
       </c>
     </row>
@@ -3868,7 +3914,7 @@
       <c r="A39" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>406</v>
       </c>
     </row>
@@ -3876,7 +3922,7 @@
       <c r="A40" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>407</v>
       </c>
     </row>
@@ -3884,7 +3930,7 @@
       <c r="A41" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>408</v>
       </c>
     </row>
@@ -3892,7 +3938,7 @@
       <c r="A42" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>409</v>
       </c>
     </row>
@@ -3900,7 +3946,7 @@
       <c r="A43" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>410</v>
       </c>
     </row>
@@ -3908,7 +3954,7 @@
       <c r="A44" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>411</v>
       </c>
     </row>
@@ -3916,7 +3962,7 @@
       <c r="A45" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>412</v>
       </c>
     </row>
@@ -3924,7 +3970,7 @@
       <c r="A46" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>413</v>
       </c>
     </row>
@@ -3932,7 +3978,7 @@
       <c r="A47" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>414</v>
       </c>
     </row>
@@ -3940,7 +3986,7 @@
       <c r="A48" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>415</v>
       </c>
     </row>
@@ -3948,7 +3994,7 @@
       <c r="A49" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>416</v>
       </c>
     </row>
@@ -3956,7 +4002,7 @@
       <c r="A50" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>417</v>
       </c>
     </row>
@@ -3964,7 +4010,7 @@
       <c r="A51" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>418</v>
       </c>
     </row>
@@ -3972,7 +4018,7 @@
       <c r="A52" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>419</v>
       </c>
     </row>
@@ -3980,7 +4026,7 @@
       <c r="A53" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>420</v>
       </c>
     </row>
@@ -3988,7 +4034,7 @@
       <c r="A54" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>421</v>
       </c>
     </row>
@@ -3996,7 +4042,7 @@
       <c r="A55" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>422</v>
       </c>
     </row>
@@ -4004,7 +4050,7 @@
       <c r="A56" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>423</v>
       </c>
     </row>
@@ -4012,7 +4058,7 @@
       <c r="A57" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>424</v>
       </c>
     </row>
@@ -4020,7 +4066,7 @@
       <c r="A58" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>425</v>
       </c>
     </row>
@@ -4028,7 +4074,7 @@
       <c r="A59" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>426</v>
       </c>
     </row>
@@ -4036,7 +4082,7 @@
       <c r="A60" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>427</v>
       </c>
     </row>
@@ -4044,7 +4090,7 @@
       <c r="A61" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>428</v>
       </c>
     </row>
@@ -4052,7 +4098,7 @@
       <c r="A62" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>429</v>
       </c>
     </row>
@@ -4060,7 +4106,7 @@
       <c r="A63" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>430</v>
       </c>
     </row>
@@ -4068,7 +4114,7 @@
       <c r="A64" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>431</v>
       </c>
     </row>
@@ -4076,7 +4122,7 @@
       <c r="A65" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>432</v>
       </c>
     </row>
@@ -4084,157 +4130,187 @@
       <c r="A66" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B67" t="s">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B68" t="s">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B69" t="s">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B70" t="s">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B71" t="s">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B72" t="s">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B73" t="s">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B74" t="s">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B75" t="s">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B76" t="s">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B77" t="s">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B78" t="s">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B79" t="s">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B80" t="s">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B96" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2" t="s">
         <v>463</v>
       </c>
     </row>

--- a/VinayakaGitWorkSpace/Project/Docs/Adm_adm_session.xlsx
+++ b/VinayakaGitWorkSpace/Project/Docs/Adm_adm_session.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VinayakWorkSpace\VinayakaGitWorkSpace\Project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E99A1D-6FF2-4E68-897B-5313509A78A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5846D40F-91B8-4B73-B544-059D06F7828C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Student Detail" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="418">
   <si>
     <t>ID</t>
   </si>
@@ -1110,13 +1111,181 @@
   </si>
   <si>
     <t>Admission_NEW_Default_value</t>
+  </si>
+  <si>
+    <t>Admission_NEW_Control_Type</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>DropDown</t>
+  </si>
+  <si>
+    <t>AdmissionSession_NEW_Control_Type</t>
+  </si>
+  <si>
+    <t>AdmissionSession_NEW_Tab_Section</t>
+  </si>
+  <si>
+    <t>1_Sudent_Basic Details</t>
+  </si>
+  <si>
+    <t>Tab_Section_row_column</t>
+  </si>
+  <si>
+    <t>Sudent_Basic Details_0_0</t>
+  </si>
+  <si>
+    <t>Sudent_Basic Details_0_1</t>
+  </si>
+  <si>
+    <t>Sudent_Basic Details_1_1</t>
+  </si>
+  <si>
+    <t>Sudent_Basic Details_1_2</t>
+  </si>
+  <si>
+    <t>Sudent_Basic Details_1_3</t>
+  </si>
+  <si>
+    <t>Sudent_Basic Details_2_1</t>
+  </si>
+  <si>
+    <t>Sudent_Basic Details_2_2</t>
+  </si>
+  <si>
+    <t>Sudent_Basic Details_2_3</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>calender</t>
+  </si>
+  <si>
+    <t>Sudent_Basic Details_3_3</t>
+  </si>
+  <si>
+    <t>Sudent_Basic Details_3_2</t>
+  </si>
+  <si>
+    <t>Sudent_Basic Details_3_1</t>
+  </si>
+  <si>
+    <t>radio button with male,female,other</t>
+  </si>
+  <si>
+    <t>Sudent_Basic Details_4_1</t>
+  </si>
+  <si>
+    <t>Sudent_Basic Details_4_3</t>
+  </si>
+  <si>
+    <t>Sudent_Basic Details_4_2</t>
+  </si>
+  <si>
+    <t>Sudent_Basic Details_5_1</t>
+  </si>
+  <si>
+    <t>Sudent_Basic Details_5_2</t>
+  </si>
+  <si>
+    <t>Sudent_Basic Details_5_3</t>
+  </si>
+  <si>
+    <t>Control_Type</t>
+  </si>
+  <si>
+    <t>Model_Name</t>
+  </si>
+  <si>
+    <t>Sudent_Academic Details_1_1</t>
+  </si>
+  <si>
+    <t>Sudent_Academic Details_1_2</t>
+  </si>
+  <si>
+    <t>adm_grp_id</t>
+  </si>
+  <si>
+    <t>Sudent_Academic Details_2_2</t>
+  </si>
+  <si>
+    <t>Sudent_Academic Details_1_3</t>
+  </si>
+  <si>
+    <t>Sudent_Academic Details_1_4</t>
+  </si>
+  <si>
+    <t>Sudent_Academic Details_2_1</t>
+  </si>
+  <si>
+    <t>Sudent_Academic Details_3_1</t>
+  </si>
+  <si>
+    <t>adm_concession_id</t>
+  </si>
+  <si>
+    <t>adm_fee_group_id</t>
+  </si>
+  <si>
+    <t>Sudent_Academic Details_2_3</t>
+  </si>
+  <si>
+    <t>adm_club_id</t>
+  </si>
+  <si>
+    <t>Sudent_Academic Details_3_2</t>
+  </si>
+  <si>
+    <t>Sudent_Academic Details_2_4</t>
+  </si>
+  <si>
+    <t>adm_house_id</t>
+  </si>
+  <si>
+    <t>Sudent_Academic Details_3_3</t>
+  </si>
+  <si>
+    <t>sess_cat_id</t>
+  </si>
+  <si>
+    <t>Sudent_Academic Details_3_4</t>
+  </si>
+  <si>
+    <t>Sudent_Academic Details_4_1</t>
+  </si>
+  <si>
+    <t>Sudent_Academic Details_4_2</t>
+  </si>
+  <si>
+    <t>Sudent_Academic Details_4_3</t>
+  </si>
+  <si>
+    <t>Sudent_Academic Details_4_4</t>
+  </si>
+  <si>
+    <t>Model_Name_old</t>
+  </si>
+  <si>
+    <t>Sudent_Address Information_1_1</t>
+  </si>
+  <si>
+    <t>Sudent_Address Information_1_2</t>
+  </si>
+  <si>
+    <t>Sudent_Address Information_1_3</t>
+  </si>
+  <si>
+    <t>Sudent_Address Information_2_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1132,8 +1301,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1146,8 +1327,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1213,23 +1430,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99FFCC"/>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1530,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D2" sqref="A1:G96"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9299,10 +9546,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151DE3AC-2631-4DB8-8CB1-7B88436A42D7}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9310,120 +9557,176 @@
     <col min="1" max="1" width="20.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>360</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="H2" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="I3" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="H4" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="8" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I5" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -9434,59 +9737,84 @@
         <v>318</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="8" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="I6" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="8" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="I7" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>227</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -9497,206 +9825,264 @@
         <v>320</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>228</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="H9" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="H10" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>358</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="H11" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>231</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>232</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="C14" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>233</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="C15" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>234</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="H15" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>235</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="H16" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>236</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>237</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -9707,17 +10093,20 @@
         <v>325</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>238</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -9728,17 +10117,20 @@
         <v>325</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>239</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -9749,38 +10141,44 @@
         <v>326</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>240</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="15" t="s">
         <v>179</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>326</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>241</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -9791,17 +10189,20 @@
         <v>326</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>242</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -9812,17 +10213,20 @@
         <v>326</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>243</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -9833,17 +10237,20 @@
         <v>323</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>244</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -9854,17 +10261,20 @@
         <v>326</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>245</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -9875,38 +10285,48 @@
         <v>326</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>246</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="H27" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
+      <c r="C28" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>247</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -9917,17 +10337,20 @@
         <v>317</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>248</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
@@ -9938,17 +10361,20 @@
         <v>317</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>249</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H30" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -9959,17 +10385,20 @@
         <v>319</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>250</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -9980,17 +10409,20 @@
         <v>346</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>251</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>72</v>
       </c>
@@ -10001,17 +10433,22 @@
         <v>346</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="11" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I33" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>74</v>
       </c>
@@ -10022,17 +10459,22 @@
         <v>317</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -10043,17 +10485,22 @@
         <v>346</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="2"/>
+      <c r="F35" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>76</v>
       </c>
@@ -10064,17 +10511,22 @@
         <v>346</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="2"/>
+      <c r="F36" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H36" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>77</v>
       </c>
@@ -10085,17 +10537,20 @@
         <v>326</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>256</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H37" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>78</v>
       </c>
@@ -10106,17 +10561,20 @@
         <v>326</v>
       </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>257</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>79</v>
       </c>
@@ -10127,17 +10585,20 @@
         <v>338</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>258</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H39" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -10148,38 +10609,48 @@
         <v>347</v>
       </c>
       <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>259</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
+      <c r="D41" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>260</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H41" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>93</v>
       </c>
@@ -10190,17 +10661,20 @@
         <v>326</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>261</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H42" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>97</v>
       </c>
@@ -10211,17 +10685,20 @@
         <v>326</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>262</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H43" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>98</v>
       </c>
@@ -10232,17 +10709,20 @@
         <v>317</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>263</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>99</v>
       </c>
@@ -10253,17 +10733,20 @@
         <v>346</v>
       </c>
       <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>264</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H45" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>101</v>
       </c>
@@ -10274,17 +10757,20 @@
         <v>338</v>
       </c>
       <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>265</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H46" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
@@ -10295,17 +10781,20 @@
         <v>338</v>
       </c>
       <c r="D47" s="2"/>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>266</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>103</v>
       </c>
@@ -10316,17 +10805,20 @@
         <v>346</v>
       </c>
       <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>267</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>104</v>
       </c>
@@ -10337,17 +10829,20 @@
         <v>326</v>
       </c>
       <c r="D49" s="2"/>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>268</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>105</v>
       </c>
@@ -10358,17 +10853,20 @@
         <v>326</v>
       </c>
       <c r="D50" s="2"/>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>269</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>106</v>
       </c>
@@ -10379,17 +10877,24 @@
         <v>326</v>
       </c>
       <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="2"/>
+      <c r="F51" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H51" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>107</v>
       </c>
@@ -10400,17 +10905,20 @@
         <v>326</v>
       </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>271</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>108</v>
       </c>
@@ -10421,38 +10929,48 @@
         <v>353</v>
       </c>
       <c r="D53" s="2"/>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>272</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
+      <c r="D54" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>273</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>110</v>
       </c>
@@ -10463,59 +10981,80 @@
         <v>354</v>
       </c>
       <c r="D55" s="2"/>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="2"/>
+      <c r="F55" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="8" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
+      <c r="I55" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2" t="s">
+      <c r="D56" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>275</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2" t="s">
+      <c r="D57" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>276</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
@@ -10526,17 +11065,20 @@
         <v>353</v>
       </c>
       <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>277</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>115</v>
       </c>
@@ -10547,17 +11089,20 @@
         <v>338</v>
       </c>
       <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>278</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H59" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>116</v>
       </c>
@@ -10568,17 +11113,20 @@
         <v>346</v>
       </c>
       <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>279</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>117</v>
       </c>
@@ -10589,17 +11137,20 @@
         <v>353</v>
       </c>
       <c r="D61" s="2"/>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>280</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>118</v>
       </c>
@@ -10610,17 +11161,20 @@
         <v>353</v>
       </c>
       <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="2"/>
+      <c r="F62" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>281</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>119</v>
       </c>
@@ -10631,17 +11185,20 @@
         <v>353</v>
       </c>
       <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>282</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H63" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>120</v>
       </c>
@@ -10652,17 +11209,24 @@
         <v>319</v>
       </c>
       <c r="D64" s="2"/>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="2"/>
+      <c r="F64" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H64" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>121</v>
       </c>
@@ -10673,17 +11237,24 @@
         <v>353</v>
       </c>
       <c r="D65" s="2"/>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="2"/>
+      <c r="F65" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H65" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>122</v>
       </c>
@@ -10694,467 +11265,1274 @@
         <v>353</v>
       </c>
       <c r="D66" s="2"/>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="2"/>
+      <c r="F66" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2" t="s">
+      <c r="H66" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="F67" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2" t="s">
+      <c r="H67" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" s="11" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2" t="s">
+      <c r="I68" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="F69" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2" t="s">
+      <c r="H69" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="F70" t="s">
+      <c r="B70" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G70" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2" t="s">
+      <c r="H70" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F71" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H71" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="2"/>
+      <c r="F72" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>291</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H72" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="2"/>
+      <c r="F73" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>292</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H73" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="2"/>
+      <c r="F74" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>293</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H74" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="2"/>
+      <c r="F75" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>294</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="2"/>
+      <c r="F76" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>295</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="2"/>
+      <c r="F77" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>296</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="2"/>
+      <c r="F78" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>297</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>298</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="2"/>
+      <c r="F80" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>299</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="2"/>
+      <c r="F81" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>300</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H81" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="2"/>
+      <c r="F82" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>301</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="2"/>
+      <c r="F83" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>302</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="2"/>
+      <c r="F84" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>303</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H84" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="2"/>
+      <c r="F85" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>304</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H85" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="2"/>
+      <c r="F86" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>305</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H86" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="2"/>
+      <c r="F87" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>306</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="2"/>
+      <c r="F88" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>307</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="2"/>
+      <c r="F89" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>308</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="2"/>
+      <c r="F90" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>309</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H90" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="2"/>
+      <c r="F91" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>310</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="2"/>
+      <c r="F92" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>311</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H92" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="2"/>
+      <c r="F93" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H93" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="J93" s="2"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="2"/>
+      <c r="F94" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H94" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="I94" s="13"/>
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="2"/>
+      <c r="F95" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>314</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H95" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="2"/>
+      <c r="F96" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>315</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>317</v>
+      <c r="H96" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F97" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I97" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69419BF0-87A1-4E58-B47E-8695E7CAB162}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.08984375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" customWidth="1"/>
+    <col min="4" max="4" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7265625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G17" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/VinayakaGitWorkSpace/Project/Docs/Adm_adm_session.xlsx
+++ b/VinayakaGitWorkSpace/Project/Docs/Adm_adm_session.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VinayakWorkSpace\VinayakaGitWorkSpace\Project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5846D40F-91B8-4B73-B544-059D06F7828C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2942426-6E4E-41C5-888A-337CB524C89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Student Detail" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="442">
   <si>
     <t>ID</t>
   </si>
@@ -1279,6 +1280,78 @@
   </si>
   <si>
     <t>Sudent_Address Information_2_1</t>
+  </si>
+  <si>
+    <t>Sudent_Address Information_2_3</t>
+  </si>
+  <si>
+    <t>Sudent_Address Information_2_2</t>
+  </si>
+  <si>
+    <t>Sudent_Permenent Address Information_1_1</t>
+  </si>
+  <si>
+    <t>Sudent_Permenent Address Information_1_2</t>
+  </si>
+  <si>
+    <t>Sudent_Permenent Address Information_1_3</t>
+  </si>
+  <si>
+    <t>Sudent_Permenent Address Information_2_1</t>
+  </si>
+  <si>
+    <t>Sudent_Permenent Address Information_2_3</t>
+  </si>
+  <si>
+    <t>Parent's_Father Details_1_2</t>
+  </si>
+  <si>
+    <t>Parent's_Father Details_1_1</t>
+  </si>
+  <si>
+    <t>Parent's_Father Details_1_3</t>
+  </si>
+  <si>
+    <t>Parent's_Father Details_1_4</t>
+  </si>
+  <si>
+    <t>Parent's_Father Details_2_1</t>
+  </si>
+  <si>
+    <t>Parent's_Father Details_2_2</t>
+  </si>
+  <si>
+    <t>Parent's_Father Details_2_3</t>
+  </si>
+  <si>
+    <t>Parent's_Mother Detail_1_1</t>
+  </si>
+  <si>
+    <t>Parent's_Mother Detail_1_2</t>
+  </si>
+  <si>
+    <t>Parent's_Mother Detail_1_3</t>
+  </si>
+  <si>
+    <t>Parent's_Mother Detail_1_4</t>
+  </si>
+  <si>
+    <t>Parent's_Mother Detail_2_2</t>
+  </si>
+  <si>
+    <t>Parent's_Mother Detail_2_1</t>
+  </si>
+  <si>
+    <t>Parent's_Mother Detail_2_3</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>Parent's_Father Details_2_4</t>
+  </si>
+  <si>
+    <t>Parent's_Mother Detail_2_4</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1387,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1341,6 +1414,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF99FFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1360,6 +1439,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3399FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1445,7 +1536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1461,10 +1552,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1473,8 +1570,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF3399FF"/>
+      <color rgb="FFFFFFFF"/>
       <color rgb="FF99FFCC"/>
-      <color rgb="FFFFFFFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -9548,8 +9646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151DE3AC-2631-4DB8-8CB1-7B88436A42D7}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33:I36"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9562,7 +9660,7 @@
     <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9695,19 +9793,19 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>364</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -9839,19 +9937,19 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="13" t="s">
         <v>364</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -9871,17 +9969,17 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="C11" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="2" t="s">
         <v>32</v>
       </c>
@@ -9895,47 +9993,51 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="I12" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="13" t="s">
         <v>377</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -9951,19 +10053,19 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="13" t="s">
         <v>364</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -9994,17 +10096,21 @@
       <c r="E15" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="H15" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
@@ -10022,65 +10128,77 @@
       <c r="E16" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="H16" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="2" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="I17" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="2" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="I18" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
@@ -10094,17 +10212,21 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="H19" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
@@ -10118,17 +10240,21 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="I20" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
@@ -10142,23 +10268,27 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="I21" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="17" t="s">
         <v>179</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -10190,17 +10320,21 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="I23" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
@@ -10262,17 +10396,21 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="H26" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
@@ -10286,17 +10424,21 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="H27" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
@@ -10314,17 +10456,21 @@
       <c r="E28" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="I28" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
@@ -10338,17 +10484,21 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="I29" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
@@ -10362,17 +10512,21 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="H30" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
@@ -10386,17 +10540,21 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="I31" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
@@ -10410,17 +10568,21 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="I32" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
@@ -10434,19 +10596,21 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="I33" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="J33" s="2"/>
+      <c r="I33" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
@@ -10460,19 +10624,21 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="I34" s="11" t="s">
+      <c r="H34" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="I34" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="J34" s="2"/>
+      <c r="J34" s="13" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
@@ -10486,19 +10652,21 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="I35" s="11" t="s">
+      <c r="H35" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="I35" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="J35" s="2"/>
+      <c r="J35" s="13" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
@@ -10512,19 +10680,21 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="I36" s="11" t="s">
+      <c r="H36" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="I36" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="J36" s="2"/>
+      <c r="J36" s="13" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
@@ -10562,17 +10732,21 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
+      <c r="I38" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
@@ -10586,17 +10760,21 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
+      <c r="H39" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
@@ -10610,17 +10788,19 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="I40" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="J40" s="13"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
@@ -10638,17 +10818,19 @@
       <c r="E41" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
+      <c r="H41" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="J41" s="13"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
@@ -10662,17 +10844,19 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
+      <c r="H42" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="J42" s="13"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
@@ -10686,17 +10870,17 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
+      <c r="H43" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
@@ -10710,17 +10894,19 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+      <c r="I44" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="J44" s="13"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
@@ -10734,17 +10920,19 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="H45" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="J45" s="13"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
@@ -11210,19 +11398,19 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="G64" s="12" t="s">
+      <c r="G64" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="H64" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="I64" s="11" t="s">
+      <c r="H64" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="I64" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="J64" s="11" t="s">
+      <c r="J64" s="13" t="s">
         <v>364</v>
       </c>
     </row>
@@ -11238,19 +11426,19 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G65" s="12" t="s">
+      <c r="G65" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="H65" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="I65" s="11" t="s">
+      <c r="H65" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="I65" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="J65" s="11" t="s">
+      <c r="J65" s="13" t="s">
         <v>364</v>
       </c>
     </row>
@@ -11266,141 +11454,141 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G66" s="12" t="s">
+      <c r="G66" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="H66" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="I66" s="11" t="s">
+      <c r="H66" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="I66" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="J66" s="11" t="s">
+      <c r="J66" s="13" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="C67" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="D67" s="11" t="s">
+      <c r="C67" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D67" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="12" t="s">
+      <c r="G67" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="H67" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="I67" s="11" t="s">
+      <c r="H67" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="I67" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="J67" s="11" t="s">
+      <c r="J67" s="13" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="C68" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="D68" s="11" t="s">
+      <c r="C68" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D68" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F68" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G68" s="12" t="s">
+      <c r="G68" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="H68" s="11" t="s">
+      <c r="H68" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="I68" s="11" t="s">
+      <c r="I68" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="J68" s="11" t="s">
+      <c r="J68" s="13" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="D69" s="11" t="s">
+      <c r="C69" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D69" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="F69" s="17" t="s">
+      <c r="F69" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="G69" s="18" t="s">
+      <c r="G69" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="H69" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
+      <c r="H69" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="C70" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="D70" s="17" t="s">
+      <c r="C70" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="D70" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="E70" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="F70" s="17" t="s">
+      <c r="F70" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G70" s="18" t="s">
+      <c r="G70" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="H70" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
+      <c r="H70" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
@@ -11418,19 +11606,19 @@
       <c r="E71" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="G71" s="12" t="s">
+      <c r="G71" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="H71" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="I71" s="11" t="s">
+      <c r="H71" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="I71" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="J71" s="11" t="s">
+      <c r="J71" s="13" t="s">
         <v>364</v>
       </c>
     </row>
@@ -11818,16 +12006,16 @@
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="11" t="s">
+      <c r="F93" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="G93" s="12" t="s">
+      <c r="G93" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="H93" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="I93" s="11" t="s">
+      <c r="H93" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="I93" s="13" t="s">
         <v>403</v>
       </c>
       <c r="J93" s="2"/>
@@ -11838,16 +12026,16 @@
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
-      <c r="F94" s="13" t="s">
+      <c r="F94" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G94" s="14" t="s">
+      <c r="G94" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="H94" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="I94" s="13"/>
+      <c r="H94" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="I94" s="15"/>
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
@@ -11887,19 +12075,19 @@
       <c r="J96" s="2"/>
     </row>
     <row r="97" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F97" s="11" t="s">
+      <c r="F97" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G97" s="11" t="s">
+      <c r="G97" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="H97" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="I97" s="11" t="s">
+      <c r="H97" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="I97" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="J97" s="11" t="s">
+      <c r="J97" s="13" t="s">
         <v>364</v>
       </c>
     </row>
@@ -11911,10 +12099,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69419BF0-87A1-4E58-B47E-8695E7CAB162}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F19" sqref="A19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11923,7 +12111,7 @@
     <col min="2" max="2" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.81640625" customWidth="1"/>
     <col min="4" max="4" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.81640625" bestFit="1" customWidth="1"/>
@@ -11980,19 +12168,19 @@
       <c r="E2" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="13" t="s">
         <v>364</v>
       </c>
     </row>
@@ -12012,19 +12200,19 @@
       <c r="E3" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="13" t="s">
         <v>364</v>
       </c>
     </row>
@@ -12044,19 +12232,19 @@
       <c r="E4" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="13" t="s">
         <v>364</v>
       </c>
     </row>
@@ -12076,19 +12264,19 @@
       <c r="E5" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="13" t="s">
         <v>364</v>
       </c>
     </row>
@@ -12108,19 +12296,19 @@
       <c r="E6" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="13" t="s">
         <v>364</v>
       </c>
     </row>
@@ -12140,19 +12328,19 @@
       <c r="E7" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="13" t="s">
         <v>377</v>
       </c>
     </row>
@@ -12172,19 +12360,19 @@
       <c r="E8" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="13" t="s">
         <v>364</v>
       </c>
     </row>
@@ -12204,19 +12392,19 @@
       <c r="E9" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="J9" s="11" t="s">
+      <c r="I9" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="13" t="s">
         <v>364</v>
       </c>
     </row>
@@ -12236,19 +12424,19 @@
       <c r="E10" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="J10" s="11" t="s">
+      <c r="I10" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="13" t="s">
         <v>364</v>
       </c>
     </row>
@@ -12268,19 +12456,19 @@
       <c r="E11" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="J11" s="11" t="s">
+      <c r="I11" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="13" t="s">
         <v>364</v>
       </c>
     </row>
@@ -12300,19 +12488,19 @@
       <c r="E12" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="J12" s="11" t="s">
+      <c r="I12" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="13" t="s">
         <v>364</v>
       </c>
     </row>
@@ -12332,19 +12520,19 @@
       <c r="E13" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="J13" s="11" t="s">
+      <c r="I13" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="J13" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="13" t="s">
         <v>364</v>
       </c>
     </row>
@@ -12364,19 +12552,19 @@
       <c r="E14" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="J14" s="11" t="s">
+      <c r="I14" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="13" t="s">
         <v>364</v>
       </c>
     </row>
@@ -12396,19 +12584,19 @@
       <c r="E15" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="13" t="s">
         <v>377</v>
       </c>
     </row>
@@ -12428,107 +12616,554 @@
       <c r="E16" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="J16" s="11" t="s">
+      <c r="I16" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="13" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="J17" s="11" t="s">
+      <c r="I17" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="13" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C23" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D23" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>414</v>
+      <c r="E23" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B24" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B27" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B29" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B30" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B31" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3BD841-F155-4075-A4ED-539AC99E135E}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/VinayakaGitWorkSpace/Project/Docs/Adm_adm_session.xlsx
+++ b/VinayakaGitWorkSpace/Project/Docs/Adm_adm_session.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VinayakWorkSpace\VinayakaGitWorkSpace\Project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2942426-6E4E-41C5-888A-337CB524C89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6B27C5-BCCA-435B-A644-81B0859C4ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,16 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Student Detail" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId6"/>
+    <sheet name="Student Detail" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="464">
   <si>
     <t>ID</t>
   </si>
@@ -1352,6 +1353,72 @@
   </si>
   <si>
     <t>Parent's_Mother Detail_2_4</t>
+  </si>
+  <si>
+    <t>Parent's_Guardian Details_1_1</t>
+  </si>
+  <si>
+    <t>Parent's_Guardian Details_1_2</t>
+  </si>
+  <si>
+    <t>Parent's_Guardian Details_1_3</t>
+  </si>
+  <si>
+    <t>Parent's_Guardian Details_2_3</t>
+  </si>
+  <si>
+    <t>Parent's_Guardian Details_2_2</t>
+  </si>
+  <si>
+    <t>Parent's_Guardian Details_2_1</t>
+  </si>
+  <si>
+    <t>Company Ledger</t>
+  </si>
+  <si>
+    <t>PartyID</t>
+  </si>
+  <si>
+    <t>ParentLedgerID</t>
+  </si>
+  <si>
+    <t>LedgerID</t>
+  </si>
+  <si>
+    <t>CrAmount</t>
+  </si>
+  <si>
+    <t>DrAmount</t>
+  </si>
+  <si>
+    <t>DocID</t>
+  </si>
+  <si>
+    <t>DocType</t>
+  </si>
+  <si>
+    <t>CANTEEN STORE DEPARTMENT- JAMMU</t>
+  </si>
+  <si>
+    <t>SALES ACCOUNTS</t>
+  </si>
+  <si>
+    <t>IGST</t>
+  </si>
+  <si>
+    <t>ROUNDED OFF</t>
+  </si>
+  <si>
+    <t>TCS (1%)</t>
+  </si>
+  <si>
+    <t>party ledger</t>
+  </si>
+  <si>
+    <t>HDFBANKACCOUNT</t>
+  </si>
+  <si>
+    <t>CASH</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1562,6 +1629,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9646,8 +9714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151DE3AC-2631-4DB8-8CB1-7B88436A42D7}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="E24" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10049,7 +10117,9 @@
       <c r="H13" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="23" t="s">
+        <v>442</v>
+      </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -10077,7 +10147,9 @@
       <c r="H14" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="23" t="s">
+        <v>443</v>
+      </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -10348,17 +10420,21 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="I24" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
@@ -10372,17 +10448,21 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="I25" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
@@ -10970,17 +11050,21 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
+      <c r="I47" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="J47" s="23" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
@@ -10994,17 +11078,21 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
+      <c r="I48" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="J48" s="23" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
@@ -12098,11 +12186,305 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF177A6C-3819-4D31-9447-4681B765C6FF}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="4" width="34.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C1" s="25" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>835037</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="K3" s="2">
+        <v>835037</v>
+      </c>
+      <c r="M3" s="2">
+        <v>785750</v>
+      </c>
+      <c r="N3">
+        <f>K3-M3</f>
+        <v>49287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E4" s="2">
+        <v>785750</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E5" s="2">
+        <v>39287.5</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="N7">
+        <v>49287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D15" s="25" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
+        <v>835037</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E19" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69419BF0-87A1-4E58-B47E-8695E7CAB162}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F19" sqref="A19:F19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12859,12 +13241,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3BD841-F155-4075-A4ED-539AC99E135E}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12872,7 +13254,7 @@
     <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -13013,6 +13395,23 @@
         <v>377</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>413</v>
@@ -13164,6 +13563,125 @@
       </c>
       <c r="E18" s="23" t="s">
         <v>439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
